--- a/xlsx/Lucene_intext.xlsx
+++ b/xlsx/Lucene_intext.xlsx
@@ -26,10 +26,10 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BB%9F%E4%BB%B6%E9%96%8B%E7%99%BC</t>
   </si>
   <si>
-    <t>軟件開發</t>
-  </si>
-  <si>
-    <t>政策_政策_維基百科_Lucene</t>
+    <t>软件开发</t>
+  </si>
+  <si>
+    <t>政策_政策_维基百科_Lucene</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Apache_Software_Foundation</t>
@@ -41,7 +41,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BB%9F%E4%BB%B6%E7%89%88%E6%9C%AC%E9%80%B1%E6%9C%9F</t>
   </si>
   <si>
-    <t>軟件版本週期</t>
+    <t>软件版本周期</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BC%96%E7%A8%8B%E8%AF%AD%E8%A8%80</t>
@@ -77,7 +77,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%A8%E6%96%87%E6%AA%A2%E7%B4%A2</t>
   </si>
   <si>
-    <t>全文檢索</t>
+    <t>全文检索</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BD%AF%E4%BB%B6%E8%AE%B8%E5%8F%AF%E8%AF%81</t>
@@ -95,7 +95,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%B2%E7%AB%99</t>
   </si>
   <si>
-    <t>網站</t>
+    <t>网站</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%90%9C%E5%AF%BB</t>
@@ -107,13 +107,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%96%8B%E6%94%BE%E6%BA%90%E7%A2%BC</t>
   </si>
   <si>
-    <t>開放源碼</t>
+    <t>开放源码</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A8%8B%E5%BC%8F%E5%BA%AB</t>
   </si>
   <si>
-    <t>程式庫</t>
+    <t>程式库</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Apache%E8%BD%AF%E4%BB%B6%E5%9F%BA%E9%87%91%E4%BC%9A</t>
@@ -131,7 +131,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E6%95%99%E7%A7%91%E6%9B%B8</t>
   </si>
   <si>
-    <t>維基教科書</t>
+    <t>维基教科书</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/GitHub</t>
@@ -953,7 +953,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
